--- a/reports_pdf/brasil/risk-pt/Cases/IRRD/brasil.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/IRRD/brasil.xlsx
@@ -423,28 +423,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9295</v>
+        <v>9534</v>
       </c>
       <c r="D2" t="n">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8711018711018711</v>
+        <v>0.933649289099526</v>
       </c>
       <c r="F2" t="n">
-        <v>1.472711503577276</v>
+        <v>1.356899988176177</v>
       </c>
       <c r="G2" t="n">
-        <v>3454</v>
+        <v>3462</v>
       </c>
       <c r="H2" t="n">
-        <v>429.6019900497512</v>
+        <v>430.5970149253731</v>
       </c>
       <c r="I2" t="n">
-        <v>5086.74553335591</v>
+        <v>4697.587759065923</v>
       </c>
       <c r="J2" t="n">
-        <v>632.6797927059589</v>
+        <v>584.2770844609357</v>
       </c>
     </row>
     <row r="3">
@@ -457,28 +457,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20031</v>
+        <v>20887</v>
       </c>
       <c r="D3" t="n">
-        <v>831</v>
+        <v>856</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8751156336725254</v>
+        <v>1.129112869637651</v>
       </c>
       <c r="F3" t="n">
-        <v>1.025701722420839</v>
+        <v>0.974456865075503</v>
       </c>
       <c r="G3" t="n">
-        <v>11412</v>
+        <v>11664</v>
       </c>
       <c r="H3" t="n">
-        <v>341.5743789284645</v>
+        <v>349.1170308290931</v>
       </c>
       <c r="I3" t="n">
-        <v>11705.30805626662</v>
+        <v>11366.06487424067</v>
       </c>
       <c r="J3" t="n">
-        <v>350.3534288017545</v>
+        <v>340.1994874061858</v>
       </c>
     </row>
     <row r="4">
@@ -491,28 +491,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15683</v>
+        <v>16322</v>
       </c>
       <c r="D4" t="n">
-        <v>517</v>
+        <v>639</v>
       </c>
       <c r="E4" t="n">
-        <v>1.279785809906292</v>
+        <v>1.756980351602895</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9907482915521545</v>
+        <v>1.074257799909218</v>
       </c>
       <c r="G4" t="n">
-        <v>7214</v>
+        <v>7009</v>
       </c>
       <c r="H4" t="n">
-        <v>940.5475880052151</v>
+        <v>913.8200782268578</v>
       </c>
       <c r="I4" t="n">
-        <v>7147.258175257242</v>
+        <v>7529.472919563712</v>
       </c>
       <c r="J4" t="n">
-        <v>931.8459159396665</v>
+        <v>981.6783467488542</v>
       </c>
     </row>
     <row r="5">
@@ -525,28 +525,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55111</v>
+        <v>56026</v>
       </c>
       <c r="D5" t="n">
-        <v>1122</v>
+        <v>915</v>
       </c>
       <c r="E5" t="n">
-        <v>1.386623748211731</v>
+        <v>1.476987447698745</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9976006213129625</v>
+        <v>0.9873073796104895</v>
       </c>
       <c r="G5" t="n">
-        <v>16202</v>
+        <v>15466</v>
       </c>
       <c r="H5" t="n">
-        <v>411.4271203656679</v>
+        <v>392.7374301675978</v>
       </c>
       <c r="I5" t="n">
-        <v>16163.12526651262</v>
+        <v>15269.69593305583</v>
       </c>
       <c r="J5" t="n">
-        <v>410.4399509017932</v>
+        <v>387.7525630537286</v>
       </c>
     </row>
     <row r="6">
@@ -559,28 +559,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34665</v>
+        <v>35788</v>
       </c>
       <c r="D6" t="n">
-        <v>774</v>
+        <v>1123</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8740338416544808</v>
+        <v>1.351480836236934</v>
       </c>
       <c r="F6" t="n">
-        <v>1.115111468381225</v>
+        <v>0.9515781545127148</v>
       </c>
       <c r="G6" t="n">
-        <v>17748</v>
+        <v>18162</v>
       </c>
       <c r="H6" t="n">
-        <v>116.7324388318863</v>
+        <v>119.455406471981</v>
       </c>
       <c r="I6" t="n">
-        <v>19790.99834082998</v>
+        <v>17282.56244225992</v>
       </c>
       <c r="J6" t="n">
-        <v>130.1696812735463</v>
+        <v>113.6711552371739</v>
       </c>
     </row>
     <row r="7">
@@ -593,28 +593,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>75784</v>
+        <v>76631</v>
       </c>
       <c r="D7" t="n">
-        <v>1092</v>
+        <v>847</v>
       </c>
       <c r="E7" t="n">
-        <v>1.510500446827524</v>
+        <v>1.158832261256804</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8651137639655505</v>
+        <v>0.9419550726917473</v>
       </c>
       <c r="G7" t="n">
-        <v>37389</v>
+        <v>28809</v>
       </c>
       <c r="H7" t="n">
-        <v>419.9123989218328</v>
+        <v>323.5512129380054</v>
       </c>
       <c r="I7" t="n">
-        <v>32345.73852090797</v>
+        <v>27136.78368917655</v>
       </c>
       <c r="J7" t="n">
-        <v>363.2719959670706</v>
+        <v>304.7707063025219</v>
       </c>
     </row>
     <row r="8">
@@ -627,28 +627,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21396</v>
+        <v>21959</v>
       </c>
       <c r="D8" t="n">
-        <v>889</v>
+        <v>563</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8935135135135135</v>
+        <v>0.9218978102189781</v>
       </c>
       <c r="F8" t="n">
-        <v>1.306364223011372</v>
+        <v>1.132055600821498</v>
       </c>
       <c r="G8" t="n">
-        <v>12674</v>
+        <v>12485</v>
       </c>
       <c r="H8" t="n">
-        <v>434.7855917667238</v>
+        <v>428.3018867924529</v>
       </c>
       <c r="I8" t="n">
-        <v>16556.86016244613</v>
+        <v>14133.7141762564</v>
       </c>
       <c r="J8" t="n">
-        <v>567.9883417648758</v>
+        <v>484.8615497858114</v>
       </c>
     </row>
     <row r="9">
@@ -661,28 +661,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25502</v>
+        <v>26011</v>
       </c>
       <c r="D9" t="n">
-        <v>1074</v>
+        <v>509</v>
       </c>
       <c r="E9" t="n">
-        <v>1.298348623853211</v>
+        <v>1.027450980392157</v>
       </c>
       <c r="F9" t="n">
-        <v>1.392410282850337</v>
+        <v>1.246755667892921</v>
       </c>
       <c r="G9" t="n">
-        <v>12599</v>
+        <v>12574</v>
       </c>
       <c r="H9" t="n">
-        <v>320.5852417302799</v>
+        <v>319.9491094147583</v>
       </c>
       <c r="I9" t="n">
-        <v>17542.9771536314</v>
+        <v>15676.70576808559</v>
       </c>
       <c r="J9" t="n">
-        <v>446.3861871153027</v>
+        <v>398.8983656001423</v>
       </c>
     </row>
     <row r="10">
@@ -695,28 +695,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7926</v>
+        <v>7941</v>
       </c>
       <c r="D10" t="n">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>1.311258278145695</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="F10" t="n">
-        <v>1.264991465858225</v>
+        <v>1.072082339186313</v>
       </c>
       <c r="G10" t="n">
-        <v>4405</v>
+        <v>4332</v>
       </c>
       <c r="H10" t="n">
-        <v>66.63137195583118</v>
+        <v>65.52715171683558</v>
       </c>
       <c r="I10" t="n">
-        <v>5572.287407105479</v>
+        <v>4644.260693355106</v>
       </c>
       <c r="J10" t="n">
-        <v>84.28811688255149</v>
+        <v>70.25050209280148</v>
       </c>
     </row>
     <row r="11">
@@ -729,28 +729,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>57605</v>
+        <v>58859</v>
       </c>
       <c r="D11" t="n">
-        <v>1925</v>
+        <v>1254</v>
       </c>
       <c r="E11" t="n">
-        <v>1.059724349157734</v>
+        <v>1.371699564214304</v>
       </c>
       <c r="F11" t="n">
-        <v>1.037785740590652</v>
+        <v>0.985339040204645</v>
       </c>
       <c r="G11" t="n">
-        <v>24985</v>
+        <v>24220</v>
       </c>
       <c r="H11" t="n">
-        <v>361.8916570104287</v>
+        <v>350.811123986095</v>
       </c>
       <c r="I11" t="n">
-        <v>25929.07672865744</v>
+        <v>23864.9115537565</v>
       </c>
       <c r="J11" t="n">
-        <v>375.566001284146</v>
+        <v>345.6678962015716</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5390</v>
+        <v>5739</v>
       </c>
       <c r="D12" t="n">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="E12" t="n">
-        <v>1.373643410852713</v>
+        <v>1.503076923076923</v>
       </c>
       <c r="F12" t="n">
-        <v>1.31494007065206</v>
+        <v>1.23974937899078</v>
       </c>
       <c r="G12" t="n">
-        <v>3128</v>
+        <v>3326</v>
       </c>
       <c r="H12" t="n">
-        <v>95.80398162327718</v>
+        <v>101.8683001531394</v>
       </c>
       <c r="I12" t="n">
-        <v>4113.132540999643</v>
+        <v>4123.406434523333</v>
       </c>
       <c r="J12" t="n">
-        <v>125.9764943644607</v>
+        <v>126.2911618537009</v>
       </c>
     </row>
     <row r="13">
@@ -797,28 +797,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3001</v>
+        <v>3235</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.235474006116208</v>
+        <v>1.182662538699691</v>
       </c>
       <c r="F13" t="n">
-        <v>1.267326038005674</v>
+        <v>1.33299209196951</v>
       </c>
       <c r="G13" t="n">
-        <v>1583</v>
+        <v>1746</v>
       </c>
       <c r="H13" t="n">
-        <v>59.71331572991324</v>
+        <v>65.86193889098453</v>
       </c>
       <c r="I13" t="n">
-        <v>2006.177118162982</v>
+        <v>2327.404192578764</v>
       </c>
       <c r="J13" t="n">
-        <v>75.67623984017285</v>
+        <v>87.79344370346151</v>
       </c>
     </row>
     <row r="14">
@@ -831,28 +831,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20106</v>
+        <v>20614</v>
       </c>
       <c r="D14" t="n">
-        <v>1658</v>
+        <v>508</v>
       </c>
       <c r="E14" t="n">
-        <v>1.500187336080929</v>
+        <v>1.648834745762712</v>
       </c>
       <c r="F14" t="n">
-        <v>1.250465746543116</v>
+        <v>1.195034032297813</v>
       </c>
       <c r="G14" t="n">
-        <v>10874</v>
+        <v>10984</v>
       </c>
       <c r="H14" t="n">
-        <v>52.10599453735205</v>
+        <v>52.63309214624562</v>
       </c>
       <c r="I14" t="n">
-        <v>13597.56452790984</v>
+        <v>13126.25381075917</v>
       </c>
       <c r="J14" t="n">
-        <v>65.15676135852145</v>
+        <v>62.89833633983024</v>
       </c>
     </row>
     <row r="15">
@@ -865,28 +865,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>67476</v>
+        <v>68510</v>
       </c>
       <c r="D15" t="n">
-        <v>2325</v>
+        <v>2182</v>
       </c>
       <c r="E15" t="n">
-        <v>1.099324975891996</v>
+        <v>0.7723146747352496</v>
       </c>
       <c r="F15" t="n">
-        <v>1.255310552246045</v>
+        <v>0.9510249628216881</v>
       </c>
       <c r="G15" t="n">
-        <v>30180</v>
+        <v>30651</v>
       </c>
       <c r="H15" t="n">
-        <v>369.1743119266055</v>
+        <v>374.9357798165138</v>
       </c>
       <c r="I15" t="n">
-        <v>37885.27246678565</v>
+        <v>29149.86613544756</v>
       </c>
       <c r="J15" t="n">
-        <v>463.4284093796409</v>
+        <v>356.5732860605207</v>
       </c>
     </row>
     <row r="16">
@@ -899,28 +899,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>26556</v>
+        <v>27454</v>
       </c>
       <c r="D16" t="n">
-        <v>1186</v>
+        <v>898</v>
       </c>
       <c r="E16" t="n">
-        <v>1.217081850533808</v>
+        <v>1.442664418212479</v>
       </c>
       <c r="F16" t="n">
-        <v>1.237300574795542</v>
+        <v>1.143234239764679</v>
       </c>
       <c r="G16" t="n">
-        <v>14545</v>
+        <v>14592</v>
       </c>
       <c r="H16" t="n">
-        <v>366.1883182275932</v>
+        <v>367.3716012084592</v>
       </c>
       <c r="I16" t="n">
-        <v>17996.53686040115</v>
+        <v>16682.0740266462</v>
       </c>
       <c r="J16" t="n">
-        <v>453.0850166264138</v>
+        <v>419.9917932186857</v>
       </c>
     </row>
     <row r="17">
@@ -933,28 +933,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8818</v>
+        <v>9233</v>
       </c>
       <c r="D17" t="n">
-        <v>249</v>
+        <v>415</v>
       </c>
       <c r="E17" t="n">
-        <v>1.289377289377289</v>
+        <v>1.890829694323144</v>
       </c>
       <c r="F17" t="n">
-        <v>1.196014161361992</v>
+        <v>1.198037451027203</v>
       </c>
       <c r="G17" t="n">
-        <v>4518</v>
+        <v>4695</v>
       </c>
       <c r="H17" t="n">
-        <v>40.47299113141629</v>
+        <v>42.05858640150498</v>
       </c>
       <c r="I17" t="n">
-        <v>5403.591981033482</v>
+        <v>5624.785832572718</v>
       </c>
       <c r="J17" t="n">
-        <v>48.4062705458522</v>
+        <v>50.38776164626641</v>
       </c>
     </row>
     <row r="18">
@@ -967,28 +967,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>43872</v>
+        <v>44671</v>
       </c>
       <c r="D18" t="n">
-        <v>878</v>
+        <v>799</v>
       </c>
       <c r="E18" t="n">
-        <v>1.046435100548446</v>
+        <v>1.247037374658159</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9332038934275058</v>
+        <v>0.9548303506768079</v>
       </c>
       <c r="G18" t="n">
-        <v>11617</v>
+        <v>11244</v>
       </c>
       <c r="H18" t="n">
-        <v>124.3124665596576</v>
+        <v>120.3210272873194</v>
       </c>
       <c r="I18" t="n">
-        <v>10841.02962994733</v>
+        <v>10736.11246301003</v>
       </c>
       <c r="J18" t="n">
-        <v>116.008877795049</v>
+        <v>114.886168678545</v>
       </c>
     </row>
     <row r="19">
@@ -1001,28 +1001,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9825</v>
+        <v>10153</v>
       </c>
       <c r="D19" t="n">
-        <v>488</v>
+        <v>328</v>
       </c>
       <c r="E19" t="n">
-        <v>1.621681415929203</v>
+        <v>1.618004866180049</v>
       </c>
       <c r="F19" t="n">
-        <v>1.146192232497756</v>
+        <v>1.11189557455952</v>
       </c>
       <c r="G19" t="n">
-        <v>5080</v>
+        <v>5222</v>
       </c>
       <c r="H19" t="n">
-        <v>158.5518102372035</v>
+        <v>162.9837702871411</v>
       </c>
       <c r="I19" t="n">
-        <v>5822.6565410886</v>
+        <v>5806.318690349813</v>
       </c>
       <c r="J19" t="n">
-        <v>181.7308533423408</v>
+        <v>181.2209329072975</v>
       </c>
     </row>
     <row r="20">
@@ -1035,28 +1035,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>77784</v>
+        <v>78836</v>
       </c>
       <c r="D20" t="n">
-        <v>2009</v>
+        <v>1052</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7041324736225087</v>
+        <v>0.6937665163998135</v>
       </c>
       <c r="F20" t="n">
-        <v>1.105774428413585</v>
+        <v>1.089916186018259</v>
       </c>
       <c r="G20" t="n">
-        <v>29831</v>
+        <v>26416</v>
       </c>
       <c r="H20" t="n">
-        <v>180.2477341389728</v>
+        <v>159.6132930513595</v>
       </c>
       <c r="I20" t="n">
-        <v>32986.35697400566</v>
+        <v>28791.22596985833</v>
       </c>
       <c r="J20" t="n">
-        <v>199.3133351903666</v>
+        <v>173.9651116003524</v>
       </c>
     </row>
     <row r="21">
@@ -1069,28 +1069,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13544</v>
+        <v>13789</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="E21" t="n">
-        <v>1.358075601374571</v>
+        <v>0.3517110266159696</v>
       </c>
       <c r="F21" t="n">
-        <v>1.919944657430427</v>
+        <v>1.941480133297346</v>
       </c>
       <c r="G21" t="n">
-        <v>6142</v>
+        <v>6387</v>
       </c>
       <c r="H21" t="n">
-        <v>178.4427658338176</v>
+        <v>185.5607205113306</v>
       </c>
       <c r="I21" t="n">
-        <v>11792.30008593768</v>
+        <v>12400.23361137015</v>
       </c>
       <c r="J21" t="n">
-        <v>342.6002349197468</v>
+        <v>360.2624523930897</v>
       </c>
     </row>
     <row r="22">
@@ -1103,28 +1103,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14384</v>
+        <v>14627</v>
       </c>
       <c r="D22" t="n">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="E22" t="n">
-        <v>1.406222222222222</v>
+        <v>1.511244377811094</v>
       </c>
       <c r="F22" t="n">
-        <v>1.252994216461558</v>
+        <v>1.110321404978435</v>
       </c>
       <c r="G22" t="n">
-        <v>5541</v>
+        <v>5385</v>
       </c>
       <c r="H22" t="n">
-        <v>49.26209103840683</v>
+        <v>47.87517780938833</v>
       </c>
       <c r="I22" t="n">
-        <v>6942.840953413492</v>
+        <v>5979.080765808872</v>
       </c>
       <c r="J22" t="n">
-        <v>61.72511516192649</v>
+        <v>53.15683468891244</v>
       </c>
     </row>
     <row r="23">
@@ -1137,28 +1137,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>11224</v>
+        <v>11710</v>
       </c>
       <c r="D23" t="n">
-        <v>677</v>
+        <v>486</v>
       </c>
       <c r="E23" t="n">
-        <v>1.213809812235009</v>
+        <v>1.054421768707483</v>
       </c>
       <c r="F23" t="n">
-        <v>1.731020044971881</v>
+        <v>1.457984348817087</v>
       </c>
       <c r="G23" t="n">
-        <v>6722</v>
+        <v>6967</v>
       </c>
       <c r="H23" t="n">
-        <v>380.2036199095023</v>
+        <v>394.0610859728507</v>
       </c>
       <c r="I23" t="n">
-        <v>11635.91674230099</v>
+        <v>10157.77695820864</v>
       </c>
       <c r="J23" t="n">
-        <v>658.1400872342186</v>
+        <v>574.5348958262807</v>
       </c>
     </row>
     <row r="24">
@@ -1171,28 +1171,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6842</v>
+        <v>6875</v>
       </c>
       <c r="D24" t="n">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="E24" t="n">
-        <v>0.528281750266809</v>
+        <v>0.343520782396088</v>
       </c>
       <c r="F24" t="n">
-        <v>1.188805068125916</v>
+        <v>0.878532823142832</v>
       </c>
       <c r="G24" t="n">
-        <v>3543</v>
+        <v>3400</v>
       </c>
       <c r="H24" t="n">
-        <v>700.1976284584981</v>
+        <v>671.9367588932806</v>
       </c>
       <c r="I24" t="n">
-        <v>4211.93635637012</v>
+        <v>2987.011598685629</v>
       </c>
       <c r="J24" t="n">
-        <v>832.3984894012096</v>
+        <v>590.3184977639582</v>
       </c>
     </row>
     <row r="25">
@@ -1205,28 +1205,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>13165</v>
+        <v>13296</v>
       </c>
       <c r="D25" t="n">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9428294573643411</v>
+        <v>0.7834821428571429</v>
       </c>
       <c r="F25" t="n">
-        <v>1.00265493312936</v>
+        <v>0.9299587575516914</v>
       </c>
       <c r="G25" t="n">
-        <v>4635</v>
+        <v>4516</v>
       </c>
       <c r="H25" t="n">
-        <v>67.97184337879455</v>
+        <v>66.22671946033142</v>
       </c>
       <c r="I25" t="n">
-        <v>4647.305615054585</v>
+        <v>4199.693749103439</v>
       </c>
       <c r="J25" t="n">
-        <v>68.1523040776446</v>
+        <v>61.58811774605424</v>
       </c>
     </row>
     <row r="26">
@@ -1239,28 +1239,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>167900</v>
+        <v>172875</v>
       </c>
       <c r="D26" t="n">
-        <v>5380</v>
+        <v>4975</v>
       </c>
       <c r="E26" t="n">
-        <v>1.280328696028256</v>
+        <v>1.65127642600718</v>
       </c>
       <c r="F26" t="n">
-        <v>1.05768637073328</v>
+        <v>1.043274994806467</v>
       </c>
       <c r="G26" t="n">
-        <v>66344</v>
+        <v>65733</v>
       </c>
       <c r="H26" t="n">
-        <v>149.4368862059645</v>
+        <v>148.0606360933417</v>
       </c>
       <c r="I26" t="n">
-        <v>70171.14457992872</v>
+        <v>68577.59523361352</v>
       </c>
       <c r="J26" t="n">
-        <v>158.0573578248687</v>
+        <v>154.4679593513234</v>
       </c>
     </row>
     <row r="27">
@@ -1273,28 +1273,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>11534</v>
+        <v>12866</v>
       </c>
       <c r="D27" t="n">
-        <v>478</v>
+        <v>1332</v>
       </c>
       <c r="E27" t="n">
-        <v>1.291743119266055</v>
+        <v>1.957391304347826</v>
       </c>
       <c r="F27" t="n">
-        <v>1.289071857107425</v>
+        <v>1.38656096136019</v>
       </c>
       <c r="G27" t="n">
-        <v>5072</v>
+        <v>6061</v>
       </c>
       <c r="H27" t="n">
-        <v>226.125724476148</v>
+        <v>270.2184574230941</v>
       </c>
       <c r="I27" t="n">
-        <v>6538.17245924886</v>
+        <v>8403.945986804114</v>
       </c>
       <c r="J27" t="n">
-        <v>291.49230759023</v>
+        <v>374.674364101833</v>
       </c>
     </row>
     <row r="28">
@@ -1307,28 +1307,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6744</v>
+        <v>6931</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6382699868938401</v>
+        <v>0.7349177330895795</v>
       </c>
       <c r="F28" t="n">
-        <v>1.033716893810607</v>
+        <v>0.9895989774183559</v>
       </c>
       <c r="G28" t="n">
-        <v>3133</v>
+        <v>2950</v>
       </c>
       <c r="H28" t="n">
-        <v>206.7986798679868</v>
+        <v>194.7194719471947</v>
       </c>
       <c r="I28" t="n">
-        <v>3238.635028308633</v>
+        <v>2919.31698338415</v>
       </c>
       <c r="J28" t="n">
-        <v>213.7712889972695</v>
+        <v>192.6941903223861</v>
       </c>
     </row>
     <row r="29">
@@ -1341,28 +1341,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>831163</v>
+        <v>851372</v>
       </c>
       <c r="D29" t="n">
-        <v>24764</v>
+        <v>20936</v>
       </c>
       <c r="E29" t="n">
-        <v>1.134863029735425</v>
+        <v>1.187838622291022</v>
       </c>
       <c r="F29" t="n">
-        <v>1.067926918523504</v>
+        <v>1.02828458683984</v>
       </c>
       <c r="G29" t="n">
-        <v>360570</v>
+        <v>348458</v>
       </c>
       <c r="H29" t="n">
-        <v>176.3618310678947</v>
+        <v>170.4376152487906</v>
       </c>
       <c r="I29" t="n">
-        <v>385062.4090120197</v>
+        <v>358313.9905610368</v>
       </c>
       <c r="J29" t="n">
-        <v>188.3415467974995</v>
+        <v>175.2583727780702</v>
       </c>
     </row>
   </sheetData>

--- a/reports_pdf/brasil/risk-pt/Cases/IRRD/brasil.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/IRRD/brasil.xlsx
@@ -423,28 +423,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9534</v>
+        <v>9642</v>
       </c>
       <c r="D2" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="E2" t="n">
-        <v>0.933649289099526</v>
+        <v>0.5912017167381974</v>
       </c>
       <c r="F2" t="n">
-        <v>1.356899988176177</v>
+        <v>1.091666354834887</v>
       </c>
       <c r="G2" t="n">
-        <v>3462</v>
+        <v>3423</v>
       </c>
       <c r="H2" t="n">
-        <v>430.5970149253731</v>
+        <v>425.7462686567164</v>
       </c>
       <c r="I2" t="n">
-        <v>4697.587759065923</v>
+        <v>3736.773932599818</v>
       </c>
       <c r="J2" t="n">
-        <v>584.2770844609357</v>
+        <v>464.772877189032</v>
       </c>
     </row>
     <row r="3">
@@ -457,28 +457,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20887</v>
+        <v>22200</v>
       </c>
       <c r="D3" t="n">
-        <v>856</v>
+        <v>1313</v>
       </c>
       <c r="E3" t="n">
-        <v>1.129112869637651</v>
+        <v>2.018842530282638</v>
       </c>
       <c r="F3" t="n">
-        <v>0.974456865075503</v>
+        <v>1.064538576837993</v>
       </c>
       <c r="G3" t="n">
-        <v>11664</v>
+        <v>11912</v>
       </c>
       <c r="H3" t="n">
-        <v>349.1170308290931</v>
+        <v>356.5399580963784</v>
       </c>
       <c r="I3" t="n">
-        <v>11366.06487424067</v>
+        <v>12680.78352729418</v>
       </c>
       <c r="J3" t="n">
-        <v>340.1994874061858</v>
+        <v>379.5505395777964</v>
       </c>
     </row>
     <row r="4">
@@ -491,28 +491,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16322</v>
+        <v>16512</v>
       </c>
       <c r="D4" t="n">
-        <v>639</v>
+        <v>190</v>
       </c>
       <c r="E4" t="n">
-        <v>1.756980351602895</v>
+        <v>1.348697394789579</v>
       </c>
       <c r="F4" t="n">
-        <v>1.074257799909218</v>
+        <v>1.088774790006752</v>
       </c>
       <c r="G4" t="n">
-        <v>7009</v>
+        <v>6910</v>
       </c>
       <c r="H4" t="n">
-        <v>913.8200782268578</v>
+        <v>900.9126466753585</v>
       </c>
       <c r="I4" t="n">
-        <v>7529.472919563712</v>
+        <v>7523.433798946656</v>
       </c>
       <c r="J4" t="n">
-        <v>981.6783467488542</v>
+        <v>980.8909776983905</v>
       </c>
     </row>
     <row r="5">
@@ -525,28 +525,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>56026</v>
+        <v>56506</v>
       </c>
       <c r="D5" t="n">
-        <v>915</v>
+        <v>480</v>
       </c>
       <c r="E5" t="n">
-        <v>1.476987447698745</v>
+        <v>1.027766435279706</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9873073796104895</v>
+        <v>0.9825453604704528</v>
       </c>
       <c r="G5" t="n">
-        <v>15466</v>
+        <v>15128</v>
       </c>
       <c r="H5" t="n">
-        <v>392.7374301675978</v>
+        <v>384.1543930929406</v>
       </c>
       <c r="I5" t="n">
-        <v>15269.69593305583</v>
+        <v>14863.94621319701</v>
       </c>
       <c r="J5" t="n">
-        <v>387.7525630537286</v>
+        <v>377.4491166378114</v>
       </c>
     </row>
     <row r="6">
@@ -559,28 +559,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35788</v>
+        <v>36402</v>
       </c>
       <c r="D6" t="n">
-        <v>1123</v>
+        <v>614</v>
       </c>
       <c r="E6" t="n">
-        <v>1.351480836236934</v>
+        <v>0.8139384116693679</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9515781545127148</v>
+        <v>0.8880818993673893</v>
       </c>
       <c r="G6" t="n">
-        <v>18162</v>
+        <v>18010</v>
       </c>
       <c r="H6" t="n">
-        <v>119.455406471981</v>
+        <v>118.4556695606419</v>
       </c>
       <c r="I6" t="n">
-        <v>17282.56244225992</v>
+        <v>15994.35500760668</v>
       </c>
       <c r="J6" t="n">
-        <v>113.6711552371739</v>
+        <v>105.1983360142507</v>
       </c>
     </row>
     <row r="7">
@@ -593,28 +593,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>76631</v>
+        <v>76833</v>
       </c>
       <c r="D7" t="n">
-        <v>847</v>
+        <v>404</v>
       </c>
       <c r="E7" t="n">
-        <v>1.158832261256804</v>
+        <v>0.3929882525697503</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9419550726917473</v>
+        <v>0.8977593524423604</v>
       </c>
       <c r="G7" t="n">
-        <v>28809</v>
+        <v>28344</v>
       </c>
       <c r="H7" t="n">
-        <v>323.5512129380054</v>
+        <v>318.3288409703504</v>
       </c>
       <c r="I7" t="n">
-        <v>27136.78368917655</v>
+        <v>25446.09108562626</v>
       </c>
       <c r="J7" t="n">
-        <v>304.7707063025219</v>
+        <v>285.7826941332689</v>
       </c>
     </row>
     <row r="8">
@@ -627,28 +627,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21959</v>
+        <v>22871</v>
       </c>
       <c r="D8" t="n">
-        <v>563</v>
+        <v>912</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9218978102189781</v>
+        <v>1.055357142857143</v>
       </c>
       <c r="F8" t="n">
-        <v>1.132055600821498</v>
+        <v>0.9862039436603167</v>
       </c>
       <c r="G8" t="n">
-        <v>12485</v>
+        <v>13091</v>
       </c>
       <c r="H8" t="n">
-        <v>428.3018867924529</v>
+        <v>449.0909090909091</v>
       </c>
       <c r="I8" t="n">
-        <v>14133.7141762564</v>
+        <v>12910.39582645721</v>
       </c>
       <c r="J8" t="n">
-        <v>484.8615497858114</v>
+        <v>442.8952256074513</v>
       </c>
     </row>
     <row r="9">
@@ -661,28 +661,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26011</v>
+        <v>26469</v>
       </c>
       <c r="D9" t="n">
-        <v>509</v>
+        <v>458</v>
       </c>
       <c r="E9" t="n">
-        <v>1.027450980392157</v>
+        <v>0.677173191771732</v>
       </c>
       <c r="F9" t="n">
-        <v>1.246755667892921</v>
+        <v>1.116373508424406</v>
       </c>
       <c r="G9" t="n">
-        <v>12574</v>
+        <v>12779</v>
       </c>
       <c r="H9" t="n">
-        <v>319.9491094147583</v>
+        <v>325.1653944020356</v>
       </c>
       <c r="I9" t="n">
-        <v>15676.70576808559</v>
+        <v>14266.13706415548</v>
       </c>
       <c r="J9" t="n">
-        <v>398.8983656001423</v>
+        <v>363.0060321668062</v>
       </c>
     </row>
     <row r="10">
@@ -695,28 +695,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7941</v>
+        <v>7960</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.1595197255574614</v>
       </c>
       <c r="F10" t="n">
-        <v>1.072082339186313</v>
+        <v>0.9718866720278004</v>
       </c>
       <c r="G10" t="n">
-        <v>4332</v>
+        <v>4234</v>
       </c>
       <c r="H10" t="n">
-        <v>65.52715171683558</v>
+        <v>64.04477386174558</v>
       </c>
       <c r="I10" t="n">
-        <v>4644.260693355106</v>
+        <v>4114.968169365707</v>
       </c>
       <c r="J10" t="n">
-        <v>70.25050209280148</v>
+        <v>62.24426212926497</v>
       </c>
     </row>
     <row r="11">
@@ -729,28 +729,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>58859</v>
+        <v>59850</v>
       </c>
       <c r="D11" t="n">
-        <v>1254</v>
+        <v>991</v>
       </c>
       <c r="E11" t="n">
-        <v>1.371699564214304</v>
+        <v>0.9316353887399463</v>
       </c>
       <c r="F11" t="n">
-        <v>0.985339040204645</v>
+        <v>0.9073164537910549</v>
       </c>
       <c r="G11" t="n">
-        <v>24220</v>
+        <v>24553</v>
       </c>
       <c r="H11" t="n">
-        <v>350.811123986095</v>
+        <v>355.6344148319815</v>
       </c>
       <c r="I11" t="n">
-        <v>23864.9115537565</v>
+        <v>22277.34088993177</v>
       </c>
       <c r="J11" t="n">
-        <v>345.6678962015716</v>
+        <v>322.6729561114104</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5739</v>
+        <v>6108</v>
       </c>
       <c r="D12" t="n">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="E12" t="n">
-        <v>1.503076923076923</v>
+        <v>1.418994413407821</v>
       </c>
       <c r="F12" t="n">
-        <v>1.23974937899078</v>
+        <v>1.21438648755399</v>
       </c>
       <c r="G12" t="n">
-        <v>3326</v>
+        <v>3623</v>
       </c>
       <c r="H12" t="n">
-        <v>101.8683001531394</v>
+        <v>110.9647779479326</v>
       </c>
       <c r="I12" t="n">
-        <v>4123.406434523333</v>
+        <v>4399.722244408107</v>
       </c>
       <c r="J12" t="n">
-        <v>126.2911618537009</v>
+        <v>134.7541269343984</v>
       </c>
     </row>
     <row r="13">
@@ -797,28 +797,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3235</v>
+        <v>3433</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.182662538699691</v>
+        <v>1.255813953488372</v>
       </c>
       <c r="F13" t="n">
-        <v>1.33299209196951</v>
+        <v>1.450719036963626</v>
       </c>
       <c r="G13" t="n">
-        <v>1746</v>
+        <v>1865</v>
       </c>
       <c r="H13" t="n">
-        <v>65.86193889098453</v>
+        <v>70.35081101471144</v>
       </c>
       <c r="I13" t="n">
-        <v>2327.404192578764</v>
+        <v>2705.591003937163</v>
       </c>
       <c r="J13" t="n">
-        <v>87.79344370346151</v>
+        <v>102.0592608048723</v>
       </c>
     </row>
     <row r="14">
@@ -831,28 +831,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20614</v>
+        <v>21381</v>
       </c>
       <c r="D14" t="n">
-        <v>508</v>
+        <v>767</v>
       </c>
       <c r="E14" t="n">
-        <v>1.648834745762712</v>
+        <v>2.521926053310404</v>
       </c>
       <c r="F14" t="n">
-        <v>1.195034032297813</v>
+        <v>1.264029034347722</v>
       </c>
       <c r="G14" t="n">
-        <v>10984</v>
+        <v>10917</v>
       </c>
       <c r="H14" t="n">
-        <v>52.63309214624562</v>
+        <v>52.312041784465</v>
       </c>
       <c r="I14" t="n">
-        <v>13126.25381075917</v>
+        <v>13799.40496797408</v>
       </c>
       <c r="J14" t="n">
-        <v>62.89833633983024</v>
+        <v>66.12393966157498</v>
       </c>
     </row>
     <row r="15">
@@ -865,28 +865,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>68510</v>
+        <v>69224</v>
       </c>
       <c r="D15" t="n">
-        <v>2182</v>
+        <v>714</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7723146747352496</v>
+        <v>0.6010920897284534</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9510249628216881</v>
+        <v>0.8834588479489829</v>
       </c>
       <c r="G15" t="n">
-        <v>30651</v>
+        <v>31263</v>
       </c>
       <c r="H15" t="n">
-        <v>374.9357798165138</v>
+        <v>382.4220183486239</v>
       </c>
       <c r="I15" t="n">
-        <v>29149.86613544756</v>
+        <v>27619.57396342905</v>
       </c>
       <c r="J15" t="n">
-        <v>356.5732860605207</v>
+        <v>337.8541157606</v>
       </c>
     </row>
     <row r="16">
@@ -899,28 +899,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27454</v>
+        <v>28013</v>
       </c>
       <c r="D16" t="n">
-        <v>898</v>
+        <v>559</v>
       </c>
       <c r="E16" t="n">
-        <v>1.442664418212479</v>
+        <v>0.9917448405253283</v>
       </c>
       <c r="F16" t="n">
-        <v>1.143234239764679</v>
+        <v>1.089547598841085</v>
       </c>
       <c r="G16" t="n">
-        <v>14592</v>
+        <v>14851</v>
       </c>
       <c r="H16" t="n">
-        <v>367.3716012084592</v>
+        <v>373.8922457200403</v>
       </c>
       <c r="I16" t="n">
-        <v>16682.0740266462</v>
+        <v>16180.87139038896</v>
       </c>
       <c r="J16" t="n">
-        <v>419.9917932186857</v>
+        <v>407.3733985495709</v>
       </c>
     </row>
     <row r="17">
@@ -933,28 +933,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9233</v>
+        <v>9706</v>
       </c>
       <c r="D17" t="n">
-        <v>415</v>
+        <v>353</v>
       </c>
       <c r="E17" t="n">
-        <v>1.890829694323144</v>
+        <v>1.585774058577406</v>
       </c>
       <c r="F17" t="n">
-        <v>1.198037451027203</v>
+        <v>1.225713459168069</v>
       </c>
       <c r="G17" t="n">
-        <v>4695</v>
+        <v>4954</v>
       </c>
       <c r="H17" t="n">
-        <v>42.05858640150498</v>
+        <v>44.37875123174774</v>
       </c>
       <c r="I17" t="n">
-        <v>5624.785832572718</v>
+        <v>6072.184476718611</v>
       </c>
       <c r="J17" t="n">
-        <v>50.38776164626641</v>
+        <v>54.39563268582471</v>
       </c>
     </row>
     <row r="18">
@@ -967,28 +967,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>44671</v>
+        <v>45261</v>
       </c>
       <c r="D18" t="n">
-        <v>799</v>
+        <v>590</v>
       </c>
       <c r="E18" t="n">
-        <v>1.247037374658159</v>
+        <v>1.37477258944815</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9548303506768079</v>
+        <v>0.9634732942232898</v>
       </c>
       <c r="G18" t="n">
-        <v>11244</v>
+        <v>10811</v>
       </c>
       <c r="H18" t="n">
-        <v>120.3210272873194</v>
+        <v>115.6875334403424</v>
       </c>
       <c r="I18" t="n">
-        <v>10736.11246301003</v>
+        <v>10416.10978384799</v>
       </c>
       <c r="J18" t="n">
-        <v>114.886168678545</v>
+        <v>111.4618489443337</v>
       </c>
     </row>
     <row r="19">
@@ -1001,28 +1001,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>10153</v>
+        <v>10357</v>
       </c>
       <c r="D19" t="n">
-        <v>328</v>
+        <v>204</v>
       </c>
       <c r="E19" t="n">
-        <v>1.618004866180049</v>
+        <v>1.157775255391601</v>
       </c>
       <c r="F19" t="n">
-        <v>1.11189557455952</v>
+        <v>1.133320069556536</v>
       </c>
       <c r="G19" t="n">
-        <v>5222</v>
+        <v>5238</v>
       </c>
       <c r="H19" t="n">
-        <v>162.9837702871411</v>
+        <v>163.4831460674157</v>
       </c>
       <c r="I19" t="n">
-        <v>5806.318690349813</v>
+        <v>5936.330524337137</v>
       </c>
       <c r="J19" t="n">
-        <v>181.2209329072975</v>
+        <v>185.278730472445</v>
       </c>
     </row>
     <row r="20">
@@ -1035,28 +1035,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>78836</v>
+        <v>79572</v>
       </c>
       <c r="D20" t="n">
-        <v>1052</v>
+        <v>736</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6937665163998135</v>
+        <v>0.4495619228036941</v>
       </c>
       <c r="F20" t="n">
-        <v>1.089916186018259</v>
+        <v>0.9280592754407851</v>
       </c>
       <c r="G20" t="n">
-        <v>26416</v>
+        <v>26184</v>
       </c>
       <c r="H20" t="n">
-        <v>159.6132930513595</v>
+        <v>158.2114803625378</v>
       </c>
       <c r="I20" t="n">
-        <v>28791.22596985833</v>
+        <v>24300.30406814152</v>
       </c>
       <c r="J20" t="n">
-        <v>173.9651116003524</v>
+        <v>146.8296318316708</v>
       </c>
     </row>
     <row r="21">
@@ -1069,28 +1069,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13789</v>
+        <v>14171</v>
       </c>
       <c r="D21" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3517110266159696</v>
+        <v>0.2958942897593204</v>
       </c>
       <c r="F21" t="n">
-        <v>1.941480133297346</v>
+        <v>1.923408908274094</v>
       </c>
       <c r="G21" t="n">
-        <v>6387</v>
+        <v>6120</v>
       </c>
       <c r="H21" t="n">
-        <v>185.5607205113306</v>
+        <v>177.8036025566531</v>
       </c>
       <c r="I21" t="n">
-        <v>12400.23361137015</v>
+        <v>11771.26251863746</v>
       </c>
       <c r="J21" t="n">
-        <v>360.2624523930897</v>
+        <v>341.9890330806932</v>
       </c>
     </row>
     <row r="22">
@@ -1103,28 +1103,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14627</v>
+        <v>14661</v>
       </c>
       <c r="D22" t="n">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="E22" t="n">
-        <v>1.511244377811094</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="F22" t="n">
-        <v>1.110321404978435</v>
+        <v>0.9649930422202345</v>
       </c>
       <c r="G22" t="n">
-        <v>5385</v>
+        <v>5329</v>
       </c>
       <c r="H22" t="n">
-        <v>47.87517780938833</v>
+        <v>47.37731152204837</v>
       </c>
       <c r="I22" t="n">
-        <v>5979.080765808872</v>
+        <v>5142.44792199163</v>
       </c>
       <c r="J22" t="n">
-        <v>53.15683468891244</v>
+        <v>45.71877597787722</v>
       </c>
     </row>
     <row r="23">
@@ -1137,28 +1137,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>11710</v>
+        <v>11865</v>
       </c>
       <c r="D23" t="n">
-        <v>486</v>
+        <v>155</v>
       </c>
       <c r="E23" t="n">
-        <v>1.054421768707483</v>
+        <v>0.8676761026991442</v>
       </c>
       <c r="F23" t="n">
-        <v>1.457984348817087</v>
+        <v>1.260606820475548</v>
       </c>
       <c r="G23" t="n">
-        <v>6967</v>
+        <v>6923</v>
       </c>
       <c r="H23" t="n">
-        <v>394.0610859728507</v>
+        <v>391.5723981900452</v>
       </c>
       <c r="I23" t="n">
-        <v>10157.77695820864</v>
+        <v>8727.181018152218</v>
       </c>
       <c r="J23" t="n">
-        <v>574.5348958262807</v>
+        <v>493.6188358683381</v>
       </c>
     </row>
     <row r="24">
@@ -1171,28 +1171,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6875</v>
+        <v>6881</v>
       </c>
       <c r="D24" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>0.343520782396088</v>
+        <v>0.206601466992665</v>
       </c>
       <c r="F24" t="n">
-        <v>0.878532823142832</v>
+        <v>0.7076623740305779</v>
       </c>
       <c r="G24" t="n">
-        <v>3400</v>
+        <v>3189</v>
       </c>
       <c r="H24" t="n">
-        <v>671.9367588932806</v>
+        <v>630.2371541501976</v>
       </c>
       <c r="I24" t="n">
-        <v>2987.011598685629</v>
+        <v>2256.735310783513</v>
       </c>
       <c r="J24" t="n">
-        <v>590.3184977639582</v>
+        <v>445.9951207082041</v>
       </c>
     </row>
     <row r="25">
@@ -1205,28 +1205,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>13296</v>
+        <v>13360</v>
       </c>
       <c r="D25" t="n">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7834821428571429</v>
+        <v>0.4487320837927233</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9299587575516914</v>
+        <v>0.8265308734181843</v>
       </c>
       <c r="G25" t="n">
-        <v>4516</v>
+        <v>4323</v>
       </c>
       <c r="H25" t="n">
-        <v>66.22671946033142</v>
+        <v>63.39639243290805</v>
       </c>
       <c r="I25" t="n">
-        <v>4199.693749103439</v>
+        <v>3573.092965786811</v>
       </c>
       <c r="J25" t="n">
-        <v>61.58811774605424</v>
+        <v>52.39907560913346</v>
       </c>
     </row>
     <row r="26">
@@ -1239,28 +1239,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>172875</v>
+        <v>178202</v>
       </c>
       <c r="D26" t="n">
-        <v>4975</v>
+        <v>5327</v>
       </c>
       <c r="E26" t="n">
-        <v>1.65127642600718</v>
+        <v>1.635415580352487</v>
       </c>
       <c r="F26" t="n">
-        <v>1.043274994806467</v>
+        <v>1.099208567678229</v>
       </c>
       <c r="G26" t="n">
-        <v>65733</v>
+        <v>68504</v>
       </c>
       <c r="H26" t="n">
-        <v>148.0606360933417</v>
+        <v>154.3021893864312</v>
       </c>
       <c r="I26" t="n">
-        <v>68577.59523361352</v>
+        <v>75300.1837202294</v>
       </c>
       <c r="J26" t="n">
-        <v>154.4679593513234</v>
+        <v>169.6102885850739</v>
       </c>
     </row>
     <row r="27">
@@ -1273,28 +1273,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>12866</v>
+        <v>13968</v>
       </c>
       <c r="D27" t="n">
-        <v>1332</v>
+        <v>1102</v>
       </c>
       <c r="E27" t="n">
-        <v>1.957391304347826</v>
+        <v>2.523396880415945</v>
       </c>
       <c r="F27" t="n">
-        <v>1.38656096136019</v>
+        <v>1.539427182371992</v>
       </c>
       <c r="G27" t="n">
-        <v>6061</v>
+        <v>6969</v>
       </c>
       <c r="H27" t="n">
-        <v>270.2184574230941</v>
+        <v>310.6999554168524</v>
       </c>
       <c r="I27" t="n">
-        <v>8403.945986804114</v>
+        <v>10728.26803395041</v>
       </c>
       <c r="J27" t="n">
-        <v>374.674364101833</v>
+        <v>478.2999569304686</v>
       </c>
     </row>
     <row r="28">
@@ -1307,28 +1307,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6931</v>
+        <v>6972</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7349177330895795</v>
+        <v>0.3719412724306688</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9895989774183559</v>
+        <v>0.8363097273992769</v>
       </c>
       <c r="G28" t="n">
-        <v>2950</v>
+        <v>2796</v>
       </c>
       <c r="H28" t="n">
-        <v>194.7194719471947</v>
+        <v>184.5544554455446</v>
       </c>
       <c r="I28" t="n">
-        <v>2919.31698338415</v>
+        <v>2338.321997808378</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6941903223861</v>
+        <v>154.3446863239854</v>
       </c>
     </row>
     <row r="29">
@@ -1341,28 +1341,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>851372</v>
+        <v>868380</v>
       </c>
       <c r="D29" t="n">
-        <v>20936</v>
+        <v>16469</v>
       </c>
       <c r="E29" t="n">
-        <v>1.187838622291022</v>
+        <v>0.9371890829364179</v>
       </c>
       <c r="F29" t="n">
-        <v>1.02828458683984</v>
+        <v>0.9825009022591399</v>
       </c>
       <c r="G29" t="n">
-        <v>348458</v>
+        <v>352243</v>
       </c>
       <c r="H29" t="n">
-        <v>170.4376152487906</v>
+        <v>172.2889326922607</v>
       </c>
       <c r="I29" t="n">
-        <v>358313.9905610368</v>
+        <v>346079.0653144662</v>
       </c>
       <c r="J29" t="n">
-        <v>175.2583727780702</v>
+        <v>169.2740318194103</v>
       </c>
     </row>
   </sheetData>
